--- a/Load Projects Users with REST API/DataToLoad.xlsx
+++ b/Load Projects Users with REST API/DataToLoad.xlsx
@@ -1,30 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\rapise-loading-data-into-spira\Load Projects Users with REST API\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{520F10B5-8A3E-432D-BD63-B8404F2BEC6A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
     <sheet name="Errors" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Form Responses 1'!$A$1:$N$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">'Form Responses 1'!$A$1:$N$63</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>Timestamp</t>
   </si>
@@ -66,17 +60,53 @@
   </si>
   <si>
     <t>Login Name 2</t>
+  </si>
+  <si>
+    <t>Team 1</t>
+  </si>
+  <si>
+    <t>Team 2</t>
+  </si>
+  <si>
+    <t>Team 3</t>
+  </si>
+  <si>
+    <t>Acme Inc.</t>
+  </si>
+  <si>
+    <t>Bloggs Corp</t>
+  </si>
+  <si>
+    <t>Smith Ltd</t>
+  </si>
+  <si>
+    <t>Roger</t>
+  </si>
+  <si>
+    <t>Dodger</t>
+  </si>
+  <si>
+    <t>Tina</t>
+  </si>
+  <si>
+    <t>Lighter</t>
+  </si>
+  <si>
+    <t>Boris</t>
+  </si>
+  <si>
+    <t>Friendly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="[&lt;=9999999]###\-####;0#########"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -129,31 +159,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -478,21 +500,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="true" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="A2:XFD63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="true"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" hidden="1" customWidth="1"/>
-    <col min="2" max="14" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" hidden="true" customWidth="true"/>
+    <col min="2" max="14" width="21.44140625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="15.75" customHeight="true">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,20 +558,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="15.75" customHeight="true">
       <c r="A2" s="4"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="15.75" customHeight="true">
       <c r="A3" s="4"/>
-      <c r="B3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="5"/>
       <c r="H3" s="2"/>
@@ -557,12 +596,20 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="15.75" customHeight="true">
       <c r="A4" s="4"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="5"/>
       <c r="H4" s="2"/>
@@ -570,7 +617,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="15.75" customHeight="true">
       <c r="A5" s="4"/>
       <c r="B5" s="2"/>
       <c r="D5" s="3"/>
@@ -578,7 +625,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="15.75" customHeight="true">
       <c r="A6" s="4"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -591,7 +638,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="15.75" customHeight="true">
       <c r="A7" s="4"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -600,7 +647,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="15.75" customHeight="true">
       <c r="A8" s="4"/>
       <c r="B8" s="2"/>
       <c r="D8" s="2"/>
@@ -612,7 +659,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" ht="15.75" customHeight="true">
       <c r="A9" s="4"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -625,7 +672,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" ht="15.75" customHeight="true">
       <c r="A10" s="4"/>
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
@@ -633,7 +680,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" ht="15.75" customHeight="true">
       <c r="A11" s="4"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -646,7 +693,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" ht="15.75" customHeight="true">
       <c r="A12" s="4"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -659,7 +706,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" ht="15.75" customHeight="true">
       <c r="A13" s="4"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -672,7 +719,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" ht="15.75" customHeight="true">
       <c r="A14" s="4"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -685,7 +732,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" ht="15.75" customHeight="true">
       <c r="A15" s="4"/>
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
@@ -693,7 +740,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" ht="15.75" customHeight="true">
       <c r="A16" s="4"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -706,7 +753,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" ht="15.75" customHeight="true">
       <c r="A17" s="4"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -715,7 +762,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" ht="15.75" customHeight="true">
       <c r="A18" s="4"/>
       <c r="B18" s="2"/>
       <c r="D18" s="2"/>
@@ -723,7 +770,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" ht="15.75" customHeight="true">
       <c r="A19" s="4"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -736,7 +783,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" ht="15.75" customHeight="true">
       <c r="A20" s="4"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -749,7 +796,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" ht="15.75" customHeight="true">
       <c r="A21" s="4"/>
       <c r="B21" s="2"/>
       <c r="D21" s="3"/>
@@ -761,7 +808,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" ht="15.75" customHeight="true">
       <c r="A22" s="4"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -770,7 +817,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" ht="15.75" customHeight="true">
       <c r="A23" s="4"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -783,7 +830,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" ht="15.75" customHeight="true">
       <c r="A24" s="4"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -792,7 +839,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" ht="15.75" customHeight="true">
       <c r="A25" s="4"/>
       <c r="B25" s="2"/>
       <c r="D25" s="3"/>
@@ -800,7 +847,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" ht="15.75" customHeight="true">
       <c r="A26" s="4"/>
       <c r="B26" s="2"/>
       <c r="D26" s="3"/>
@@ -808,7 +855,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" ht="15.75" customHeight="true">
       <c r="A27" s="4"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -821,7 +868,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" ht="15.75" customHeight="true">
       <c r="A28" s="4"/>
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
@@ -832,7 +879,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" ht="15.75" customHeight="true">
       <c r="A29" s="4"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -845,7 +892,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" ht="15.75" customHeight="true">
       <c r="A30" s="4"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -858,7 +905,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" ht="15.75" customHeight="true">
       <c r="A31" s="4"/>
       <c r="B31" s="2"/>
       <c r="D31" s="2"/>
@@ -866,7 +913,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" ht="15.75" customHeight="true">
       <c r="A32" s="4"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -879,7 +926,7 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" ht="15.75" customHeight="true">
       <c r="A33" s="4"/>
       <c r="B33" s="2"/>
       <c r="D33" s="2"/>
@@ -887,7 +934,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" ht="15.75" customHeight="true">
       <c r="A34" s="4"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -896,7 +943,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" ht="15.75" customHeight="true">
       <c r="A35" s="4"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -905,7 +952,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" ht="15.75" customHeight="true">
       <c r="A36" s="4"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -916,7 +963,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" ht="15.75" customHeight="true">
       <c r="A37" s="4"/>
       <c r="B37" s="2"/>
       <c r="D37" s="3"/>
@@ -924,7 +971,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" ht="15.75" customHeight="true">
       <c r="A38" s="4"/>
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
@@ -933,7 +980,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" ht="15.75" customHeight="true">
       <c r="A39" s="4"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -942,7 +989,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" ht="15.75" customHeight="true">
       <c r="A40" s="4"/>
       <c r="B40" s="2"/>
       <c r="D40" s="3"/>
@@ -954,7 +1001,7 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" ht="15.75" customHeight="true">
       <c r="A41" s="4"/>
       <c r="B41" s="2"/>
       <c r="D41" s="2"/>
@@ -962,7 +1009,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" ht="15.75" customHeight="true">
       <c r="A42" s="4"/>
       <c r="B42" s="2"/>
       <c r="D42" s="3"/>
@@ -970,7 +1017,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" ht="15.75" customHeight="true">
       <c r="A43" s="4"/>
       <c r="B43" s="2"/>
       <c r="D43" s="3"/>
@@ -978,7 +1025,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="5"/>
     </row>
-    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" ht="15.75" customHeight="true">
       <c r="A44" s="4"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -991,7 +1038,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" ht="15.75" customHeight="true">
       <c r="A45" s="4"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1004,7 +1051,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" ht="15.75" customHeight="true">
       <c r="A46" s="4"/>
       <c r="B46" s="2"/>
       <c r="D46" s="2"/>
@@ -1016,7 +1063,7 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" ht="15.75" customHeight="true">
       <c r="A47" s="4"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1025,7 +1072,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="5"/>
     </row>
-    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" ht="15.75" customHeight="true">
       <c r="A48" s="4"/>
       <c r="B48" s="2"/>
       <c r="D48" s="3"/>
@@ -1033,7 +1080,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" ht="15.75" customHeight="true">
       <c r="A49" s="4"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1042,7 +1089,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="5"/>
     </row>
-    <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" ht="15.75" customHeight="true">
       <c r="A50" s="4"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1055,7 +1102,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" ht="15.75" customHeight="true">
       <c r="A51" s="4"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1068,7 +1115,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" ht="15.75" customHeight="true">
       <c r="A52" s="4"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1080,7 +1127,7 @@
       <c r="I52" s="3"/>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" ht="15.75" customHeight="true">
       <c r="A53" s="4"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1093,7 +1140,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" ht="15.75" customHeight="true">
       <c r="A54" s="4"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1106,7 +1153,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
     </row>
-    <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" ht="15.75" customHeight="true">
       <c r="A55" s="4"/>
       <c r="B55" s="6"/>
       <c r="C55" s="2"/>
@@ -1119,7 +1166,7 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
     </row>
-    <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" ht="15.75" customHeight="true">
       <c r="A56" s="4"/>
       <c r="B56" s="2"/>
       <c r="D56" s="3"/>
@@ -1130,7 +1177,7 @@
       <c r="I56" s="3"/>
       <c r="K56" s="9"/>
     </row>
-    <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" ht="15.75" customHeight="true">
       <c r="A57" s="4"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1143,7 +1190,7 @@
       <c r="J57" s="2"/>
       <c r="K57" s="10"/>
     </row>
-    <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" ht="15.75" customHeight="true">
       <c r="A58" s="4"/>
       <c r="B58" s="2"/>
       <c r="C58" s="3"/>
@@ -1152,7 +1199,7 @@
       <c r="F58" s="2"/>
       <c r="G58" s="5"/>
     </row>
-    <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" ht="15.75" customHeight="true">
       <c r="A59" s="4"/>
       <c r="B59" s="2"/>
       <c r="C59" s="8"/>
@@ -1165,7 +1212,7 @@
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
     </row>
-    <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" ht="15.75" customHeight="true">
       <c r="A60" s="4"/>
       <c r="B60" s="2"/>
       <c r="D60" s="2"/>
@@ -1173,7 +1220,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="5"/>
     </row>
-    <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" ht="15.75" customHeight="true">
       <c r="A61" s="4"/>
       <c r="B61" s="2"/>
       <c r="D61" s="3"/>
@@ -1185,7 +1232,7 @@
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
     </row>
-    <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" ht="15.75" customHeight="true">
       <c r="A62" s="4"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1198,7 +1245,7 @@
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
     </row>
-    <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" ht="15.75" customHeight="true">
       <c r="A63" s="4"/>
       <c r="B63" s="10"/>
       <c r="D63" s="2"/>
@@ -1209,62 +1256,62 @@
       <c r="I63" s="3"/>
       <c r="K63" s="2"/>
     </row>
-    <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="true"/>
+    <row r="67" ht="15.75" customHeight="true"/>
+    <row r="68" ht="15.75" customHeight="true"/>
+    <row r="69" ht="15.75" customHeight="true"/>
+    <row r="70" ht="15.75" customHeight="true"/>
+    <row r="71" ht="15.75" customHeight="true"/>
+    <row r="72" ht="15.75" customHeight="true"/>
+    <row r="73" ht="15.75" customHeight="true"/>
+    <row r="74" ht="15.75" customHeight="true"/>
+    <row r="75" ht="15.75" customHeight="true"/>
+    <row r="76" ht="15.75" customHeight="true"/>
+    <row r="77" ht="15.75" customHeight="true"/>
+    <row r="78" ht="15.75" customHeight="true"/>
+    <row r="79" ht="15.75" customHeight="true"/>
+    <row r="80" ht="15.75" customHeight="true"/>
+    <row r="81" ht="15.75" customHeight="true"/>
+    <row r="82" ht="15.75" customHeight="true"/>
+    <row r="83" ht="15.75" customHeight="true"/>
+    <row r="84" ht="15.75" customHeight="true"/>
+    <row r="85" ht="15.75" customHeight="true"/>
+    <row r="86" ht="15.75" customHeight="true"/>
+    <row r="87" ht="15.75" customHeight="true"/>
+    <row r="88" ht="15.75" customHeight="true"/>
+    <row r="89" ht="15.75" customHeight="true"/>
+    <row r="90" ht="15.75" customHeight="true"/>
+    <row r="91" ht="15.75" customHeight="true"/>
+    <row r="92" ht="15.75" customHeight="true"/>
+    <row r="93" ht="15.75" customHeight="true"/>
+    <row r="94" ht="15.75" customHeight="true"/>
+    <row r="95" ht="15.75" customHeight="true"/>
+    <row r="96" ht="15.75" customHeight="true"/>
+    <row r="97" ht="15.75" customHeight="true"/>
+    <row r="98" ht="15.75" customHeight="true"/>
+    <row r="99" ht="15.75" customHeight="true"/>
+    <row r="100" ht="15.75" customHeight="true"/>
   </sheetData>
-  <autoFilter ref="A1:N63" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <autoFilter ref="A1:N63"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.0" footer="0.0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69006A52-8822-4528-8BDE-BB4F479EAA3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="15.75" customHeight="true">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1304,7 +1351,7 @@
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="15.75" customHeight="true">
       <c r="A2" s="4"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1317,7 +1364,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="15.75" customHeight="true">
       <c r="A3" s="4"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
